--- a/CashFlow/SEDG_cashflow.xlsx
+++ b/CashFlow/SEDG_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
@@ -554,19 +554,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1092000000.0</v>
+        <v>-149661000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>931000000.0</v>
+        <v>-160289000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>648023000.0</v>
+        <v>-118497000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>384782000.0</v>
+        <v>-52512000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>186746000.0</v>
+        <v>-22544000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>13688000.0</v>
@@ -740,19 +740,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3333000.0</v>
+        <v>581000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-8963000.0</v>
+        <v>576000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>16228000.0</v>
+        <v>445515000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>20691000.0</v>
+        <v>307744000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>41636000.0</v>
+        <v>172100000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
